--- a/Computer_Systems_A_Programmer’s_Perspective/chapter3/registers.xlsx
+++ b/Computer_Systems_A_Programmer’s_Perspective/chapter3/registers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18840" windowHeight="13245"/>
+    <workbookView windowWidth="14400" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>%rsp</t>
   </si>
@@ -64,19 +64,10 @@
     <t>%rax</t>
   </si>
   <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>(0x402400)</t>
-  </si>
-  <si>
-    <t>input+1</t>
-  </si>
-  <si>
-    <t>0x402400</t>
-  </si>
-  <si>
-    <t>input+1-input</t>
+    <t>wuwt</t>
+  </si>
+  <si>
+    <t>37(0x25)</t>
   </si>
   <si>
     <t>stack_bottom</t>
@@ -110,6 +101,135 @@
   </si>
   <si>
     <t>Argument build area</t>
+  </si>
+  <si>
+    <t>6 2 3 4 1 5</t>
+  </si>
+  <si>
+    <t>2 6 3 4 1 5</t>
+  </si>
+  <si>
+    <t>0x6032d0</t>
+  </si>
+  <si>
+    <t>0x0000014c</t>
+  </si>
+  <si>
+    <t>node1</t>
+  </si>
+  <si>
+    <t>(rbx)+8</t>
+  </si>
+  <si>
+    <t>eax</t>
+  </si>
+  <si>
+    <t>n_5</t>
+  </si>
+  <si>
+    <t>n_1</t>
+  </si>
+  <si>
+    <t>0x6032d8</t>
+  </si>
+  <si>
+    <t>0x006032e0</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>(rbx)</t>
+  </si>
+  <si>
+    <t>0x6032e0</t>
+  </si>
+  <si>
+    <t>0x000000a8</t>
+  </si>
+  <si>
+    <t>node2</t>
+  </si>
+  <si>
+    <t>0x6032e8</t>
+  </si>
+  <si>
+    <t>0x006032d0</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>0x6032f0</t>
+  </si>
+  <si>
+    <t>0x0000039c</t>
+  </si>
+  <si>
+    <t>node3</t>
+  </si>
+  <si>
+    <t>0x6032f8</t>
+  </si>
+  <si>
+    <t>0x603300</t>
+  </si>
+  <si>
+    <t>0x000002b3</t>
+  </si>
+  <si>
+    <t>node4</t>
+  </si>
+  <si>
+    <t>0x603308</t>
+  </si>
+  <si>
+    <t>0x006032f0</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>0x4011d2</t>
+  </si>
+  <si>
+    <t>0x603310</t>
+  </si>
+  <si>
+    <t>0x000001dd</t>
+  </si>
+  <si>
+    <t>node5</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>0x603318</t>
+  </si>
+  <si>
+    <t>0x00603300</t>
+  </si>
+  <si>
+    <t>&gt;4</t>
+  </si>
+  <si>
+    <t>0x603320</t>
+  </si>
+  <si>
+    <t>0x000001bb</t>
+  </si>
+  <si>
+    <t>node6</t>
+  </si>
+  <si>
+    <t>0x603328</t>
+  </si>
+  <si>
+    <t>0x00603310</t>
+  </si>
+  <si>
+    <t>&gt;5</t>
   </si>
 </sst>
 </file>
@@ -118,9 +238,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -139,8 +259,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,6 +289,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -163,7 +344,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,112 +402,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -328,13 +448,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,61 +580,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,92 +614,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -575,6 +695,68 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -612,6 +794,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -633,30 +824,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -676,6 +843,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,29 +885,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,134 +908,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,6 +1072,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -902,10 +1120,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1227,16 +1445,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="11.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="12.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1279,41 +1498,55 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:16">
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="6:16">
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="16:16">
-      <c r="P3" t="s">
-        <v>20</v>
+      <c r="P4">
+        <v>0</v>
       </c>
     </row>
     <row r="22" ht="15.75" spans="7:10">
       <c r="G22" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -1321,39 +1554,39 @@
     </row>
     <row r="23" spans="6:10">
       <c r="F23" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="14"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="6:10">
       <c r="F24" s="7"/>
       <c r="G24" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="6:10">
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" ht="15.75" spans="6:10">
       <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="5:10">
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" ht="15.75" spans="5:10">
       <c r="E26" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="10"/>
@@ -1367,18 +1600,18 @@
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="M27" s="17"/>
+      <c r="K27" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="29"/>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" s="7"/>
       <c r="F28" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
@@ -1396,7 +1629,7 @@
     <row r="30" spans="5:10">
       <c r="E30" s="7"/>
       <c r="F30" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="10"/>
@@ -1410,6 +1643,200 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
+    </row>
+    <row r="47" ht="15.75" spans="3:13">
+      <c r="C47">
+        <v>123456</v>
+      </c>
+      <c r="K47">
+        <v>623451</v>
+      </c>
+      <c r="L47" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13">
+      <c r="C48" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" t="s">
+        <v>34</v>
+      </c>
+      <c r="K48" t="s">
+        <v>35</v>
+      </c>
+      <c r="L48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" spans="3:13">
+      <c r="C49" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="J49" t="s">
+        <v>40</v>
+      </c>
+      <c r="K49" t="s">
+        <v>36</v>
+      </c>
+      <c r="L49" t="s">
+        <v>36</v>
+      </c>
+      <c r="M49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5">
+      <c r="C50" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" spans="3:5">
+      <c r="C51" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="C52" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" spans="3:5">
+      <c r="C53" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5">
+      <c r="C54" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" spans="3:9">
+      <c r="C55" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11">
+      <c r="C56" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" spans="3:5">
+      <c r="C57" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7">
+      <c r="C58" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" spans="3:11">
+      <c r="C59" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K59" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
